--- a/medicine/Enfance/L'Histoire_de_l'humanité_(roman)/L'Histoire_de_l'humanité_(roman).xlsx
+++ b/medicine/Enfance/L'Histoire_de_l'humanité_(roman)/L'Histoire_de_l'humanité_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Histoire_de_l%27humanit%C3%A9_(roman)</t>
+          <t>L'Histoire_de_l'humanité_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Histoire de l'humanité (The Story of Mankind) est un roman écrit et illustré par le journaliste, professeur et auteur néerlando-américain Hendrik Willem van Loon et publié en 1921. En 1922, il est le premier livre à recevoir la médaille Newbery pour une contribution exceptionnelle à la littérature enfantine américaine[1]. 
+L'Histoire de l'humanité (The Story of Mankind) est un roman écrit et illustré par le journaliste, professeur et auteur néerlando-américain Hendrik Willem van Loon et publié en 1921. En 1922, il est le premier livre à recevoir la médaille Newbery pour une contribution exceptionnelle à la littérature enfantine américaine. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Histoire_de_l%27humanit%C3%A9_(roman)</t>
+          <t>L'Histoire_de_l'humanité_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Écrit pour les enfants de Van Loon (Hansje et Willem) en l'espace de deux mois[2], L'Histoire de l'humanité raconte en de courts chapitres l'histoire de la civilisation occidentale à partir de l'homme primitif, couvrant le développement de l'écriture, de l'art et de l'architecture, la montée des grandes religions et la formation de l'État-nation moderne. Van Loon explique dans le livre comment il a choisi ce qu'il incluait et se qu'il ignorait en soumettant tous les documents à une question : la personne ou l'événement en question a-t-il accompli un acte sans lequel toute l'histoire de la civilisation aurait été différente ? 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Écrit pour les enfants de Van Loon (Hansje et Willem) en l'espace de deux mois, L'Histoire de l'humanité raconte en de courts chapitres l'histoire de la civilisation occidentale à partir de l'homme primitif, couvrant le développement de l'écriture, de l'art et de l'architecture, la montée des grandes religions et la formation de l'État-nation moderne. Van Loon explique dans le livre comment il a choisi ce qu'il incluait et se qu'il ignorait en soumettant tous les documents à une question : la personne ou l'événement en question a-t-il accompli un acte sans lequel toute l'histoire de la civilisation aurait été différente ? 
 Après la première édition du livre en 1921, Van Loon a publié une édition mise à jour en 1926 qui comprenait un essai supplémentaire intitulé « After Seven Years », sur les effets de la Première Guerre mondiale et une autre mise à jour en 1938 avec un nouvel « Épilogue ». Depuis la mort de Van Loon en 1944, L'histoire de l'humanité a été complétée par son fils, Gerrit van Loon. La version la plus récente de Robert Sullivan (2014) couvre les événements jusqu'au début des années 2010  (ISBN 978-0-87140-865-5). 
-Le roman est publié pour la première fois en français en 1937. Il est traduit par Maurice Soulié aux éditions Payot[3]. 
+Le roman est publié pour la première fois en français en 1937. Il est traduit par Maurice Soulié aux éditions Payot. 
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Histoire_de_l%27humanit%C3%A9_(roman)</t>
+          <t>L'Histoire_de_l'humanité_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1957, un film basé sur le livre, intitulé L'Histoire de l'humanité, met en vedette Ronald Colman, les Marx Brothers et un casting de stars. 
 </t>
